--- a/InputData/fuels/PoFDCtAE/Perc of Fuel Demand Changes that Affect Exports.xlsx
+++ b/InputData/fuels/PoFDCtAE/Perc of Fuel Demand Changes that Affect Exports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\Dropbox (Energy InNovation)\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ct/fuels/pofdctae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190E0567-D228-475F-AE92-CB99F12E58B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7E8BE2-D4AC-114D-B3AD-9E03EB5D28D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2055" yWindow="1065" windowWidth="23535" windowHeight="16185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2060" yWindow="460" windowWidth="23540" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -507,6 +507,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -792,17 +793,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="87.5703125" customWidth="1"/>
+    <col min="2" max="2" width="87.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="34">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -810,223 +814,223 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="26" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="27" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="32" t="s">
         <v>92</v>
       </c>
       <c r="B47" s="33"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="14" t="s">
         <v>53</v>
       </c>
@@ -1038,77 +1042,77 @@
       <c r="G57" s="15"/>
       <c r="H57" s="15"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>62</v>
       </c>
@@ -1131,21 +1135,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.140625" customWidth="1"/>
-    <col min="2" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="100.7109375" customWidth="1"/>
+    <col min="1" max="1" width="44.1640625" customWidth="1"/>
+    <col min="2" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="100.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>70</v>
       </c>
@@ -1158,7 +1162,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>71</v>
       </c>
@@ -1181,7 +1185,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>32</v>
       </c>
@@ -1194,7 +1198,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
@@ -1205,7 +1209,7 @@
         <v>121838241144116.98</v>
       </c>
       <c r="D5" s="24">
-        <v>1908500328228990.3</v>
+        <v>1908500328228990.2</v>
       </c>
       <c r="E5" s="22">
         <f t="shared" ref="E5:E24" si="0">B5+C5-D5</f>
@@ -1219,7 +1223,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>34</v>
       </c>
@@ -1244,7 +1248,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>78</v>
       </c>
@@ -1269,7 +1273,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>36</v>
       </c>
@@ -1283,7 +1287,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>37</v>
       </c>
@@ -1294,7 +1298,7 @@
       <c r="F9" s="23"/>
       <c r="G9" s="30"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>38</v>
       </c>
@@ -1305,7 +1309,7 @@
       <c r="F10" s="23"/>
       <c r="G10" s="30"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>39</v>
       </c>
@@ -1327,7 +1331,7 @@
       </c>
       <c r="G11" s="30"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="s">
         <v>40</v>
       </c>
@@ -1349,7 +1353,7 @@
       </c>
       <c r="G12" s="30"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
         <v>41</v>
       </c>
@@ -1371,7 +1375,7 @@
       </c>
       <c r="G13" s="30"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>42</v>
       </c>
@@ -1386,14 +1390,14 @@
       </c>
       <c r="E14" s="22">
         <f t="shared" si="0"/>
-        <v>1405677582804767.3</v>
+        <v>1405677582804767.2</v>
       </c>
       <c r="F14" t="s">
         <v>77</v>
       </c>
       <c r="G14" s="30"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>43</v>
       </c>
@@ -1415,7 +1419,7 @@
       </c>
       <c r="G15" s="30"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
         <v>44</v>
       </c>
@@ -1437,7 +1441,7 @@
       </c>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>45</v>
       </c>
@@ -1448,7 +1452,7 @@
       <c r="F17" s="23"/>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -1459,7 +1463,7 @@
       <c r="F18" s="23"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>47</v>
       </c>
@@ -1481,7 +1485,7 @@
       </c>
       <c r="G19" s="30"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>48</v>
       </c>
@@ -1503,7 +1507,7 @@
       </c>
       <c r="G20" s="30"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="28" t="s">
         <v>49</v>
       </c>
@@ -1525,7 +1529,7 @@
       </c>
       <c r="G21" s="30"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
         <v>50</v>
       </c>
@@ -1547,12 +1551,12 @@
       </c>
       <c r="G22" s="30"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="24">
-        <v>1730154785433083.3</v>
+        <v>1730154785433083.2</v>
       </c>
       <c r="C23" s="24">
         <v>0</v>
@@ -1562,14 +1566,14 @@
       </c>
       <c r="E23" s="22">
         <f t="shared" si="0"/>
-        <v>1730154785433083.3</v>
+        <v>1730154785433083.2</v>
       </c>
       <c r="F23" t="s">
         <v>77</v>
       </c>
       <c r="G23" s="30"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>52</v>
       </c>
@@ -1610,13 +1614,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.7109375" customWidth="1"/>
-    <col min="2" max="22" width="16.5703125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="36.6640625" customWidth="1"/>
+    <col min="2" max="22" width="16.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>69</v>
       </c>
@@ -1684,7 +1688,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>32</v>
       </c>
@@ -1752,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
@@ -1821,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
@@ -1890,7 +1894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>35</v>
       </c>
@@ -1959,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>36</v>
       </c>
@@ -2027,7 +2031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>37</v>
       </c>
@@ -2095,7 +2099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>38</v>
       </c>
@@ -2163,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>39</v>
       </c>
@@ -2232,7 +2236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>40</v>
       </c>
@@ -2302,7 +2306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>41</v>
       </c>
@@ -2372,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
@@ -2441,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>43</v>
       </c>
@@ -2510,7 +2514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>44</v>
       </c>
@@ -2580,7 +2584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>45</v>
       </c>
@@ -2648,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>46</v>
       </c>
@@ -2716,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>47</v>
       </c>
@@ -2785,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>48</v>
       </c>
@@ -2853,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
@@ -2923,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>50</v>
       </c>
@@ -2993,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>51</v>
       </c>
@@ -3062,7 +3066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>52</v>
       </c>

--- a/InputData/fuels/PoFDCtAE/Perc of Fuel Demand Changes that Affect Exports.xlsx
+++ b/InputData/fuels/PoFDCtAE/Perc of Fuel Demand Changes that Affect Exports.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ct/fuels/pofdctae/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/fuels/pofdctae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7E8BE2-D4AC-114D-B3AD-9E03EB5D28D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43EF654A-0795-8144-B9B2-ED0FB35DCD1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2060" yWindow="460" windowWidth="23540" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2060" yWindow="460" windowWidth="23540" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
